--- a/my excel.xlsx
+++ b/my excel.xlsx
@@ -11,8 +11,55 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+  <si>
+    <t>sadfs</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>sdfa</t>
+  </si>
+  <si>
+    <t>dsfa</t>
+  </si>
+  <si>
+    <t>asdff</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>dfa</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>adfasd</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>ffass</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,12 +389,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
